--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H2">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I2">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J2">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N2">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O2">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P2">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q2">
-        <v>9.75018573947775</v>
+        <v>12.3905064690065</v>
       </c>
       <c r="R2">
-        <v>39.000742957911</v>
+        <v>49.562025876026</v>
       </c>
       <c r="S2">
-        <v>0.0003799684808707059</v>
+        <v>0.0002354277751834744</v>
       </c>
       <c r="T2">
-        <v>0.000182264185149383</v>
+        <v>0.0001128202821681704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H3">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I3">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J3">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P3">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q3">
-        <v>19.866340751831</v>
+        <v>33.534436639634</v>
       </c>
       <c r="R3">
-        <v>119.198044510986</v>
+        <v>201.206619837804</v>
       </c>
       <c r="S3">
-        <v>0.0007741989247824674</v>
+        <v>0.0006371763599695093</v>
       </c>
       <c r="T3">
-        <v>0.0005570543740061724</v>
+        <v>0.0004580157332750458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H4">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I4">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J4">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N4">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O4">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P4">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q4">
-        <v>40.51174260703566</v>
+        <v>61.38733933088566</v>
       </c>
       <c r="R4">
-        <v>243.070455642214</v>
+        <v>368.324035985314</v>
       </c>
       <c r="S4">
-        <v>0.001578758159805569</v>
+        <v>0.001166399836782638</v>
       </c>
       <c r="T4">
-        <v>0.001135953706813445</v>
+        <v>0.0008384326696637932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H5">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I5">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J5">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N5">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O5">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P5">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q5">
-        <v>16.82508059109075</v>
+        <v>30.5746410275475</v>
       </c>
       <c r="R5">
-        <v>67.300322364363</v>
+        <v>122.29856411019</v>
       </c>
       <c r="S5">
-        <v>0.0006556798489324348</v>
+        <v>0.0005809382959570051</v>
       </c>
       <c r="T5">
-        <v>0.0003145180703164852</v>
+        <v>0.0002783937554567947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H6">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I6">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J6">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N6">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O6">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P6">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q6">
-        <v>5.809272204155167</v>
+        <v>12.935822871149</v>
       </c>
       <c r="R6">
-        <v>34.855633224931</v>
+        <v>77.61493722689401</v>
       </c>
       <c r="S6">
-        <v>0.0002263895676817627</v>
+        <v>0.0002457891456124073</v>
       </c>
       <c r="T6">
-        <v>0.0001628926298779435</v>
+        <v>0.0001766783936618439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6496915</v>
+        <v>1.096681</v>
       </c>
       <c r="H7">
-        <v>1.299383</v>
+        <v>2.193362</v>
       </c>
       <c r="I7">
-        <v>0.005425816501278846</v>
+        <v>0.004066739499659485</v>
       </c>
       <c r="J7">
-        <v>0.003655611729725819</v>
+        <v>0.002727650639497791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N7">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O7">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P7">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q7">
-        <v>46.4666072113195</v>
+        <v>63.20876306641667</v>
       </c>
       <c r="R7">
-        <v>278.799643267917</v>
+        <v>379.2525783985</v>
       </c>
       <c r="S7">
-        <v>0.001810821519205906</v>
+        <v>0.001201008086154451</v>
       </c>
       <c r="T7">
-        <v>0.00130292876356239</v>
+        <v>0.0008633098052721437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J8">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N8">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O8">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P8">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q8">
-        <v>14.973051539474</v>
+        <v>11.27232118503933</v>
       </c>
       <c r="R8">
-        <v>89.83830923684401</v>
+        <v>67.633927110236</v>
       </c>
       <c r="S8">
-        <v>0.0005835055658906306</v>
+        <v>0.0002141815190836299</v>
       </c>
       <c r="T8">
-        <v>0.0004198460077009958</v>
+        <v>0.0001539581686956281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J9">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P9">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q9">
         <v>30.50811050434934</v>
@@ -1013,10 +1013,10 @@
         <v>274.572994539144</v>
       </c>
       <c r="S9">
-        <v>0.001188912776875382</v>
+        <v>0.0005796741722428119</v>
       </c>
       <c r="T9">
-        <v>0.001283176147893148</v>
+        <v>0.000625022931813811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J10">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N10">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O10">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P10">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q10">
-        <v>62.21260047929512</v>
+        <v>55.84741893833377</v>
       </c>
       <c r="R10">
-        <v>559.913404313656</v>
+        <v>502.626770445004</v>
       </c>
       <c r="S10">
-        <v>0.002424448920949488</v>
+        <v>0.001061137704360974</v>
       </c>
       <c r="T10">
-        <v>0.002616672213182673</v>
+        <v>0.001144152061272206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J11">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N11">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O11">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P11">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q11">
-        <v>25.837743564842</v>
+        <v>27.81542260939</v>
       </c>
       <c r="R11">
-        <v>155.026461389052</v>
+        <v>166.89253565634</v>
       </c>
       <c r="S11">
-        <v>0.001006906784525085</v>
+        <v>0.0005285113305979231</v>
       </c>
       <c r="T11">
-        <v>0.0007244931639420572</v>
+        <v>0.0003799050307509234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J12">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N12">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O12">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P12">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q12">
-        <v>8.921115396547112</v>
+        <v>11.76842533120933</v>
       </c>
       <c r="R12">
-        <v>80.290038568924</v>
+        <v>105.915827980884</v>
       </c>
       <c r="S12">
-        <v>0.0003476592913685188</v>
+        <v>0.0002236078242701253</v>
       </c>
       <c r="T12">
-        <v>0.0003752235815397222</v>
+        <v>0.0002411009918918364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.008332254614231399</v>
+        <v>0.003699735271573896</v>
       </c>
       <c r="J13">
-        <v>0.008420710789519103</v>
+        <v>0.003722239381324789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N13">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O13">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P13">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q13">
-        <v>71.35729751511867</v>
+        <v>57.50446769677779</v>
       </c>
       <c r="R13">
-        <v>642.2156776360681</v>
+        <v>517.5402092710001</v>
       </c>
       <c r="S13">
-        <v>0.002780821274622296</v>
+        <v>0.001092622721018432</v>
       </c>
       <c r="T13">
-        <v>0.003001299675260507</v>
+        <v>0.001178100196900385</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H14">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I14">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J14">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N14">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O14">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P14">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q14">
-        <v>631.159715896346</v>
+        <v>594.9826721189647</v>
       </c>
       <c r="R14">
-        <v>3786.958295378076</v>
+        <v>3569.896032713788</v>
       </c>
       <c r="S14">
-        <v>0.02459653639877905</v>
+        <v>0.01130506223616201</v>
       </c>
       <c r="T14">
-        <v>0.01769778767154933</v>
+        <v>0.008126315875974351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H15">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I15">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J15">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P15">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q15">
-        <v>1286.009756107197</v>
+        <v>1610.298075366195</v>
       </c>
       <c r="R15">
-        <v>11574.08780496478</v>
+        <v>14492.68267829575</v>
       </c>
       <c r="S15">
-        <v>0.05011629382961191</v>
+        <v>0.03059672291959925</v>
       </c>
       <c r="T15">
-        <v>0.05408978195353614</v>
+        <v>0.03299034937008079</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H16">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I16">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J16">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N16">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O16">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P16">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q16">
-        <v>2622.450549920714</v>
+        <v>2947.773223049903</v>
       </c>
       <c r="R16">
-        <v>23602.05494928642</v>
+        <v>26529.95900744913</v>
       </c>
       <c r="S16">
-        <v>0.1021979045565643</v>
+        <v>0.05600963071073752</v>
       </c>
       <c r="T16">
-        <v>0.1103007016513787</v>
+        <v>0.06039134616121952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H17">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I17">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J17">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N17">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O17">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P17">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q17">
-        <v>1089.139568163218</v>
+        <v>1468.17094709987</v>
       </c>
       <c r="R17">
-        <v>6534.837408979308</v>
+        <v>8809.02568259922</v>
       </c>
       <c r="S17">
-        <v>0.04244418703692521</v>
+        <v>0.02789621397069911</v>
       </c>
       <c r="T17">
-        <v>0.0305395929692083</v>
+        <v>0.02005238376702918</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H18">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I18">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J18">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N18">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O18">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P18">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q18">
-        <v>376.0521790978217</v>
+        <v>621.1683499125747</v>
       </c>
       <c r="R18">
-        <v>3384.469611880396</v>
+        <v>5590.515149213173</v>
       </c>
       <c r="S18">
-        <v>0.01465489776685746</v>
+        <v>0.01180260734297758</v>
       </c>
       <c r="T18">
-        <v>0.01581681653187846</v>
+        <v>0.01272594260326136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.05654266666667</v>
+        <v>52.66178533333333</v>
       </c>
       <c r="H19">
-        <v>126.169628</v>
+        <v>157.985356</v>
       </c>
       <c r="I19">
-        <v>0.3512299040198892</v>
+        <v>0.1952817296348302</v>
       </c>
       <c r="J19">
-        <v>0.354958601160661</v>
+        <v>0.1964695555611368</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N19">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O19">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P19">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q19">
-        <v>3007.927375928575</v>
+        <v>3035.236601882556</v>
       </c>
       <c r="R19">
-        <v>27071.34638335718</v>
+        <v>27317.129416943</v>
       </c>
       <c r="S19">
-        <v>0.1172200844311513</v>
+        <v>0.05767149245465474</v>
       </c>
       <c r="T19">
-        <v>0.12651392038311</v>
+        <v>0.06218321778357164</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H20">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I20">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J20">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N20">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O20">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P20">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q20">
-        <v>46.88006013155325</v>
+        <v>42.8708443941985</v>
       </c>
       <c r="R20">
-        <v>187.520240526213</v>
+        <v>171.483377576794</v>
       </c>
       <c r="S20">
-        <v>0.001826933938211083</v>
+        <v>0.0008145742501494659</v>
       </c>
       <c r="T20">
-        <v>0.0008763480192008426</v>
+        <v>0.0003903553719486512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H21">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I21">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J21">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P21">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q21">
-        <v>95.51974433357299</v>
+        <v>116.028317213746</v>
       </c>
       <c r="R21">
-        <v>573.1184660014379</v>
+        <v>696.169903282476</v>
       </c>
       <c r="S21">
-        <v>0.003722441101878946</v>
+        <v>0.002204614367317701</v>
       </c>
       <c r="T21">
-        <v>0.00267838410956804</v>
+        <v>0.001584723052317944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H22">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I22">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J22">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N22">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O22">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P22">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q22">
-        <v>194.7853077056937</v>
+        <v>212.3986681909443</v>
       </c>
       <c r="R22">
-        <v>1168.711846234162</v>
+        <v>1274.392009145666</v>
       </c>
       <c r="S22">
-        <v>0.007590858209520606</v>
+        <v>0.004035714442279493</v>
       </c>
       <c r="T22">
-        <v>0.0054618013958909</v>
+        <v>0.002900956196268465</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H23">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I23">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J23">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N23">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O23">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P23">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q23">
-        <v>80.89700144223224</v>
+        <v>105.7874979670275</v>
       </c>
       <c r="R23">
-        <v>323.588005768929</v>
+        <v>423.14999186811</v>
       </c>
       <c r="S23">
-        <v>0.003152587198471845</v>
+        <v>0.002010032063733757</v>
       </c>
       <c r="T23">
-        <v>0.001512240529859556</v>
+        <v>0.0009632354738976032</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H24">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I24">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J24">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N24">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O24">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P24">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q24">
-        <v>27.93167612681216</v>
+        <v>44.757625590781</v>
       </c>
       <c r="R24">
-        <v>167.590056760873</v>
+        <v>268.545753544686</v>
       </c>
       <c r="S24">
-        <v>0.001088508140219886</v>
+        <v>0.0008504243342828749</v>
       </c>
       <c r="T24">
-        <v>0.0007832072626827589</v>
+        <v>0.0006113028504073075</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.1237945</v>
+        <v>3.794489</v>
       </c>
       <c r="H25">
-        <v>6.247589</v>
+        <v>7.588978</v>
       </c>
       <c r="I25">
-        <v>0.026087975207778</v>
+        <v>0.0140708175826183</v>
       </c>
       <c r="J25">
-        <v>0.01757661877283757</v>
+        <v>0.009437603411946896</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N25">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O25">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P25">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q25">
-        <v>223.4170095197185</v>
+        <v>218.7007490410834</v>
       </c>
       <c r="R25">
-        <v>1340.502057118311</v>
+        <v>1312.2044942465</v>
       </c>
       <c r="S25">
-        <v>0.008706646619475632</v>
+        <v>0.00415545812485501</v>
       </c>
       <c r="T25">
-        <v>0.006264637455635472</v>
+        <v>0.002987030467106926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H26">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I26">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J26">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N26">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O26">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P26">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q26">
-        <v>10.4314845668565</v>
+        <v>2034.78101824073</v>
       </c>
       <c r="R26">
-        <v>62.588907401139</v>
+        <v>12208.68610944438</v>
       </c>
       <c r="S26">
-        <v>0.0004065189576898237</v>
+        <v>0.03866217812066487</v>
       </c>
       <c r="T26">
-        <v>0.0002924999715818188</v>
+        <v>0.02779118463025547</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H27">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I27">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J27">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P27">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q27">
-        <v>21.254510682146</v>
+        <v>5507.05778673428</v>
       </c>
       <c r="R27">
-        <v>191.290596139314</v>
+        <v>49563.52008060851</v>
       </c>
       <c r="S27">
-        <v>0.0008282964398150823</v>
+        <v>0.1046377212893411</v>
       </c>
       <c r="T27">
-        <v>0.0008939682167003332</v>
+        <v>0.1128236834936739</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H28">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I28">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J28">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N28">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O28">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P28">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q28">
-        <v>43.34251972972066</v>
+        <v>10081.08854494665</v>
       </c>
       <c r="R28">
-        <v>390.082677567486</v>
+        <v>90729.79690451981</v>
       </c>
       <c r="S28">
-        <v>0.001689074630868794</v>
+        <v>0.1915473151562544</v>
       </c>
       <c r="T28">
-        <v>0.00182299351180195</v>
+        <v>0.2065323421894287</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H29">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I29">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J29">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N29">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O29">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P29">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q29">
-        <v>18.0007410332145</v>
+        <v>5020.997273839949</v>
       </c>
       <c r="R29">
-        <v>108.004446199287</v>
+        <v>30125.98364303969</v>
       </c>
       <c r="S29">
-        <v>0.0007014957876385903</v>
+        <v>0.09540225174324221</v>
       </c>
       <c r="T29">
-        <v>0.0005047427532410738</v>
+        <v>0.0685771397582336</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H30">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I30">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J30">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N30">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O30">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P30">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q30">
-        <v>6.215197839457666</v>
+        <v>2124.33340795058</v>
       </c>
       <c r="R30">
-        <v>55.936780555119</v>
+        <v>19119.00067155522</v>
       </c>
       <c r="S30">
-        <v>0.0002422086455038257</v>
+        <v>0.0403637324457032</v>
       </c>
       <c r="T30">
-        <v>0.000261412243832411</v>
+        <v>0.04352144635761717</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.695089</v>
+        <v>180.09802</v>
       </c>
       <c r="H31">
-        <v>2.085267</v>
+        <v>540.2940599999999</v>
       </c>
       <c r="I31">
-        <v>0.005804947988479781</v>
+        <v>0.6678439142690207</v>
       </c>
       <c r="J31">
-        <v>0.005866573985353178</v>
+        <v>0.6719061597109177</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N31">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O31">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P31">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q31">
-        <v>49.713483306937</v>
+        <v>10380.20452156167</v>
       </c>
       <c r="R31">
-        <v>447.4213497624331</v>
+        <v>93421.840694055</v>
       </c>
       <c r="S31">
-        <v>0.001937353526963665</v>
+        <v>0.1972307155138149</v>
       </c>
       <c r="T31">
-        <v>0.002090957288195592</v>
+        <v>0.212660363281709</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H32">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I32">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J32">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N32">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O32">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P32">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q32">
-        <v>1083.804301694923</v>
+        <v>350.4939233491099</v>
       </c>
       <c r="R32">
-        <v>6502.825810169535</v>
+        <v>2102.96354009466</v>
       </c>
       <c r="S32">
-        <v>0.04223626965471673</v>
+        <v>0.00665961514937367</v>
       </c>
       <c r="T32">
-        <v>0.03038999151216198</v>
+        <v>0.004787071064777022</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H33">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I33">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J33">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>91.734342</v>
       </c>
       <c r="O33">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P33">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q33">
-        <v>2208.288758909823</v>
+        <v>948.5985334439599</v>
       </c>
       <c r="R33">
-        <v>19874.59883018841</v>
+        <v>8537.386800995639</v>
       </c>
       <c r="S33">
-        <v>0.08605786058510161</v>
+        <v>0.01802399626114113</v>
       </c>
       <c r="T33">
-        <v>0.09288098857153668</v>
+        <v>0.01943403988925831</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H34">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I34">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J34">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N34">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O34">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P34">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q34">
-        <v>4503.175845039288</v>
+        <v>1736.481834690526</v>
       </c>
       <c r="R34">
-        <v>40528.58260535359</v>
+        <v>15628.33651221474</v>
       </c>
       <c r="S34">
-        <v>0.1754904912226714</v>
+        <v>0.0329942973687409</v>
       </c>
       <c r="T34">
-        <v>0.1894043170356028</v>
+        <v>0.03557548958022061</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H35">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I35">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J35">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N35">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O35">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P35">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q35">
-        <v>1870.230496959192</v>
+        <v>864.8739190396499</v>
       </c>
       <c r="R35">
-        <v>11221.38298175515</v>
+        <v>5189.243514237899</v>
       </c>
       <c r="S35">
-        <v>0.07288360035341371</v>
+        <v>0.01643317350126395</v>
       </c>
       <c r="T35">
-        <v>0.05244146829782104</v>
+        <v>0.01181250982314791</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H36">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I36">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J36">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N36">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O36">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P36">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q36">
-        <v>645.7430014986927</v>
+        <v>365.91944979806</v>
       </c>
       <c r="R36">
-        <v>5811.687013488236</v>
+        <v>3293.27504818254</v>
       </c>
       <c r="S36">
-        <v>0.0251648526364884</v>
+        <v>0.006952710301052432</v>
       </c>
       <c r="T36">
-        <v>0.0271600568994243</v>
+        <v>0.007496631011870591</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.21795166666666</v>
+        <v>31.02214</v>
       </c>
       <c r="H37">
-        <v>216.653855</v>
+        <v>93.06641999999999</v>
       </c>
       <c r="I37">
-        <v>0.6031191016683428</v>
+        <v>0.1150370637422974</v>
       </c>
       <c r="J37">
-        <v>0.6095218835619034</v>
+        <v>0.1157367912951761</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N37">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O37">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P37">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q37">
-        <v>5165.102504344071</v>
+        <v>1788.004986931667</v>
       </c>
       <c r="R37">
-        <v>46485.92253909665</v>
+        <v>16092.044882385</v>
       </c>
       <c r="S37">
-        <v>0.201286027215951</v>
+        <v>0.03397327116072535</v>
       </c>
       <c r="T37">
-        <v>0.2172450612453567</v>
+        <v>0.03663104992590167</v>
       </c>
     </row>
   </sheetData>
